--- a/Reports/ZacksRank/TanzyREIT.xlsx
+++ b/Reports/ZacksRank/TanzyREIT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="56">
   <si>
     <t>Jun_03</t>
   </si>
@@ -155,6 +155,39 @@
   </si>
   <si>
     <t>Buy        ($64.22)</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Hold       ($10.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($24.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.50)</t>
+  </si>
+  <si>
+    <t>Buy        ($63.96)</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
+  </si>
+  <si>
+    <t>Jun_18</t>
+  </si>
+  <si>
+    <t>Hold       ($10.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.36)</t>
+  </si>
+  <si>
+    <t>Buy        ($64.17)</t>
   </si>
 </sst>
 </file>
@@ -525,38 +558,50 @@
     <col min="8" max="8" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="10" max="10" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -565,33 +610,42 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -600,33 +654,42 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -635,33 +698,42 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -699,39 +771,57 @@
       <c r="K5" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="L5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>28</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="N6" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Reports/ZacksRank/TanzyREIT.xlsx
+++ b/Reports/ZacksRank/TanzyREIT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="80">
   <si>
     <t>Jun_03</t>
   </si>
@@ -233,6 +233,33 @@
   </si>
   <si>
     <t>Buy        ($64.43)</t>
+  </si>
+  <si>
+    <t>Jun_26</t>
+  </si>
+  <si>
+    <t>Hold       ($25.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.45)</t>
+  </si>
+  <si>
+    <t>Buy        ($64.03)</t>
+  </si>
+  <si>
+    <t>Jun_27</t>
+  </si>
+  <si>
+    <t>Hold       ($10.21)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.14)</t>
+  </si>
+  <si>
+    <t>Buy        ($64.41)</t>
   </si>
 </sst>
 </file>
@@ -289,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -301,6 +328,16 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -649,56 +686,64 @@
     <col min="14" max="14" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="16" max="16" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="17" max="17" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -706,52 +751,58 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -759,52 +810,58 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -812,52 +869,58 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="I4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="Q4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="R4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -865,22 +928,22 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="B5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="0" t="s">
@@ -911,6 +974,12 @@
         <v>8</v>
       </c>
       <c r="Q5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -918,52 +987,58 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="M6" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>28</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="R6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="S6" s="0" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Reports/ZacksRank/TanzyREIT.xlsx
+++ b/Reports/ZacksRank/TanzyREIT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21995" uniqueCount="281">
   <si>
     <t>Jun_03</t>
   </si>
@@ -260,6 +260,609 @@
   </si>
   <si>
     <t>Buy        ($64.41)</t>
+  </si>
+  <si>
+    <t>Jul_01</t>
+  </si>
+  <si>
+    <t>Hold       ($10.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.99)</t>
+  </si>
+  <si>
+    <t>Buy        ($65.70)</t>
+  </si>
+  <si>
+    <t>Jul_02</t>
+  </si>
+  <si>
+    <t>Hold       ($25.55)</t>
+  </si>
+  <si>
+    <t>Buy        ($64.50)</t>
+  </si>
+  <si>
+    <t>Jul_08</t>
+  </si>
+  <si>
+    <t>Buy        ($10.33)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.19)</t>
+  </si>
+  <si>
+    <t>Jul_18</t>
+  </si>
+  <si>
+    <t>Buy        ($9.98)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.58)</t>
+  </si>
+  <si>
+    <t>Hold       ($62.97)</t>
+  </si>
+  <si>
+    <t>Jul_20</t>
+  </si>
+  <si>
+    <t>Buy        ($9.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($62.44)</t>
+  </si>
+  <si>
+    <t>Jul_24</t>
+  </si>
+  <si>
+    <t>Hold       ($25.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($62.34)</t>
+  </si>
+  <si>
+    <t>Jul_29</t>
+  </si>
+  <si>
+    <t>Hold       ($9.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.99)</t>
+  </si>
+  <si>
+    <t>Aug_01</t>
+  </si>
+  <si>
+    <t>Hold       ($10.19)</t>
+  </si>
+  <si>
+    <t>Sell       ($26.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.11)</t>
+  </si>
+  <si>
+    <t>Aug_05</t>
+  </si>
+  <si>
+    <t>Sell       ($10.20)</t>
+  </si>
+  <si>
+    <t>Sell       ($26.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.80)</t>
+  </si>
+  <si>
+    <t>Aug_12</t>
+  </si>
+  <si>
+    <t>Sell       ($10.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.57)</t>
+  </si>
+  <si>
+    <t>Aug_14</t>
+  </si>
+  <si>
+    <t>Hold       ($26.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.06)</t>
+  </si>
+  <si>
+    <t>Aug_18</t>
+  </si>
+  <si>
+    <t>Sell       ($10.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($27.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.46)</t>
+  </si>
+  <si>
+    <t>Aug_21</t>
+  </si>
+  <si>
+    <t>Sell       ($10.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.06)</t>
+  </si>
+  <si>
+    <t>Hold       ($65.72)</t>
+  </si>
+  <si>
+    <t>Aug_26</t>
+  </si>
+  <si>
+    <t>Hold       ($10.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.10)</t>
+  </si>
+  <si>
+    <t>Sep_02</t>
+  </si>
+  <si>
+    <t>Sell       ($10.33)</t>
+  </si>
+  <si>
+    <t>Hold       ($27.03)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.11)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.16)</t>
+  </si>
+  <si>
+    <t>Sep_11</t>
+  </si>
+  <si>
+    <t>Sell       ($10.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.40)</t>
+  </si>
+  <si>
+    <t>Sep_24</t>
+  </si>
+  <si>
+    <t>Hold       ($25.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.30)</t>
+  </si>
+  <si>
+    <t>Oct_01</t>
+  </si>
+  <si>
+    <t>Hold       ($25.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.22)</t>
+  </si>
+  <si>
+    <t>Oct_06</t>
+  </si>
+  <si>
+    <t>Sell       ($9.81)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.87)</t>
+  </si>
+  <si>
+    <t>Buy        ($65.24)</t>
+  </si>
+  <si>
+    <t>Oct_22</t>
+  </si>
+  <si>
+    <t>Hold       ($9.81)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($63.53)</t>
+  </si>
+  <si>
+    <t>Nov_04</t>
+  </si>
+  <si>
+    <t>Hold       ($9.67)</t>
+  </si>
+  <si>
+    <t>Sell       ($27.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.64)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.35)</t>
+  </si>
+  <si>
+    <t>Nov_11</t>
+  </si>
+  <si>
+    <t>Hold       ($9.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.57)</t>
+  </si>
+  <si>
+    <t>Nov_19</t>
+  </si>
+  <si>
+    <t>Hold       ($28.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.70)</t>
+  </si>
+  <si>
+    <t>Nov_24</t>
+  </si>
+  <si>
+    <t>Hold       ($9.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.96)</t>
+  </si>
+  <si>
+    <t>Dec_02</t>
+  </si>
+  <si>
+    <t>Hold       ($10.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.34)</t>
+  </si>
+  <si>
+    <t>Dec_09</t>
+  </si>
+  <si>
+    <t>Sell       ($10.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.84)</t>
+  </si>
+  <si>
+    <t>Dec_16</t>
+  </si>
+  <si>
+    <t>Sell       ($10.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.81)</t>
+  </si>
+  <si>
+    <t>Dec_30</t>
+  </si>
+  <si>
+    <t>Sell       ($9.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($27.88)</t>
+  </si>
+  <si>
+    <t>Buy        ($15.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($58.49)</t>
+  </si>
+  <si>
+    <t>Jan_07</t>
+  </si>
+  <si>
+    <t>Hold       ($9.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($58.94)</t>
+  </si>
+  <si>
+    <t>Jan_13</t>
+  </si>
+  <si>
+    <t>Sell       ($9.78)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($62.36)</t>
+  </si>
+  <si>
+    <t>Jan_21</t>
+  </si>
+  <si>
+    <t>Sell       ($10.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.70)</t>
+  </si>
+  <si>
+    <t>Jan_27</t>
+  </si>
+  <si>
+    <t>Sell       ($10.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.37)</t>
+  </si>
+  <si>
+    <t>Sell       ($16.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.01)</t>
+  </si>
+  <si>
+    <t>Jan_31</t>
+  </si>
+  <si>
+    <t>Hold       ($10.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($31.54)</t>
+  </si>
+  <si>
+    <t>Sell       ($17.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($69.16)</t>
+  </si>
+  <si>
+    <t>Feb_03</t>
+  </si>
+  <si>
+    <t>Sell       ($29.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.83)</t>
+  </si>
+  <si>
+    <t>Feb_07</t>
+  </si>
+  <si>
+    <t>Hold       ($10.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($31.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.30)</t>
+  </si>
+  <si>
+    <t>Feb_10</t>
+  </si>
+  <si>
+    <t>Hold       ($10.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($31.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.83)</t>
+  </si>
+  <si>
+    <t>Feb_13</t>
+  </si>
+  <si>
+    <t>Sell       ($10.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.81)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.82)</t>
+  </si>
+  <si>
+    <t>Feb_17</t>
+  </si>
+  <si>
+    <t>Hold       ($10.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.84)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($71.19)</t>
+  </si>
+  <si>
+    <t>Feb_24</t>
+  </si>
+  <si>
+    <t>Hold       ($10.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($71.62)</t>
+  </si>
+  <si>
+    <t>Feb_28</t>
+  </si>
+  <si>
+    <t>Hold       ($10.36)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.06)</t>
+  </si>
+  <si>
+    <t>Mar_03</t>
+  </si>
+  <si>
+    <t>Sell       ($10.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.52)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.33)</t>
+  </si>
+  <si>
+    <t>Hold       ($69.88)</t>
+  </si>
+  <si>
+    <t>Mar_06</t>
+  </si>
+  <si>
+    <t>Sell       ($10.27)</t>
+  </si>
+  <si>
+    <t>Sell       ($30.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.17)</t>
+  </si>
+  <si>
+    <t>Mar_10</t>
+  </si>
+  <si>
+    <t>Hold       ($10.30)</t>
+  </si>
+  <si>
+    <t>Sell       ($30.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($69.94)</t>
   </si>
 </sst>
 </file>
@@ -276,12 +879,292 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="62">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
@@ -316,7 +1199,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="246">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
@@ -343,7 +1226,222 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="61" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -688,62 +1786,234 @@
     <col min="16" max="16" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="17" max="17" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="18" max="18" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" width="13.6640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="AT1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="AU1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="AV1" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="AW1" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="AX1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="AY1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="BA1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="BB1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="BC1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="BD1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="BE1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="BF1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="BG1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="BH1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="BI1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="BJ1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -751,58 +2021,187 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="241" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="236" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="231" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="226" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="221" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="216" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="211" t="s">
+        <v>248</v>
+      </c>
+      <c r="I2" s="206" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="201" t="s">
+        <v>238</v>
+      </c>
+      <c r="K2" s="196" t="s">
+        <v>235</v>
+      </c>
+      <c r="L2" s="191" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="186" t="s">
+        <v>225</v>
+      </c>
+      <c r="N2" s="181" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="176" t="s">
+        <v>216</v>
+      </c>
+      <c r="P2" s="171" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q2" s="166" t="s">
+        <v>206</v>
+      </c>
+      <c r="R2" s="161" t="s">
+        <v>202</v>
+      </c>
+      <c r="S2" s="156" t="s">
+        <v>197</v>
+      </c>
+      <c r="T2" s="151" t="s">
+        <v>192</v>
+      </c>
+      <c r="U2" s="146" t="s">
+        <v>187</v>
+      </c>
+      <c r="V2" s="141" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="136" t="s">
+        <v>179</v>
+      </c>
+      <c r="X2" s="131" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y2" s="126" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z2" s="121" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA2" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB2" s="111" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC2" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD2" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE2" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF2" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG2" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH2" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI2" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ2" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK2" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL2" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM2" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN2" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO2" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP2" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR2" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS2" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="AT2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="AU2" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="AV2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="AW2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="AY2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="AZ2" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="BA2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="BB2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="BC2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="BD2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="BE2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="BF2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="BG2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="BH2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="BI2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="BJ2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -810,58 +2209,187 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="242" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="237" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="232" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="227" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="222" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="217" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="212" t="s">
+        <v>249</v>
+      </c>
+      <c r="I3" s="207" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" s="202" t="s">
+        <v>239</v>
+      </c>
+      <c r="K3" s="197" t="s">
+        <v>236</v>
+      </c>
+      <c r="L3" s="192" t="s">
+        <v>231</v>
+      </c>
+      <c r="M3" s="187" t="s">
+        <v>226</v>
+      </c>
+      <c r="N3" s="182" t="s">
+        <v>221</v>
+      </c>
+      <c r="O3" s="177" t="s">
+        <v>217</v>
+      </c>
+      <c r="P3" s="172" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q3" s="167" t="s">
+        <v>207</v>
+      </c>
+      <c r="R3" s="162" t="s">
+        <v>203</v>
+      </c>
+      <c r="S3" s="157" t="s">
+        <v>198</v>
+      </c>
+      <c r="T3" s="152" t="s">
+        <v>193</v>
+      </c>
+      <c r="U3" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="V3" s="142" t="s">
+        <v>183</v>
+      </c>
+      <c r="W3" s="137" t="s">
+        <v>180</v>
+      </c>
+      <c r="X3" s="132" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y3" s="127" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z3" s="122" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA3" s="117" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB3" s="112" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC3" s="107" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD3" s="102" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE3" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF3" s="92" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG3" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH3" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI3" s="77" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK3" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL3" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM3" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN3" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO3" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP3" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="AR3" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS3" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="AT3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="AU3" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="AV3" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="AW3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="AX3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="AY3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="AZ3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="BA3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="BB3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="BC3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="BD3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="BE3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="BF3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="BG3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="BH3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="BI3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="BJ3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
@@ -869,58 +2397,187 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="243" t="s">
+        <v>279</v>
+      </c>
+      <c r="C4" s="238" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="233" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="228" t="s">
+        <v>264</v>
+      </c>
+      <c r="F4" s="223" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="218" t="s">
+        <v>255</v>
+      </c>
+      <c r="H4" s="213" t="s">
+        <v>250</v>
+      </c>
+      <c r="I4" s="208" t="s">
+        <v>245</v>
+      </c>
+      <c r="J4" s="203" t="s">
+        <v>240</v>
+      </c>
+      <c r="K4" s="198" t="s">
+        <v>236</v>
+      </c>
+      <c r="L4" s="193" t="s">
+        <v>232</v>
+      </c>
+      <c r="M4" s="188" t="s">
+        <v>227</v>
+      </c>
+      <c r="N4" s="183" t="s">
+        <v>222</v>
+      </c>
+      <c r="O4" s="178" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="173" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="168" t="s">
+        <v>208</v>
+      </c>
+      <c r="R4" s="163" t="s">
+        <v>157</v>
+      </c>
+      <c r="S4" s="158" t="s">
+        <v>199</v>
+      </c>
+      <c r="T4" s="153" t="s">
+        <v>194</v>
+      </c>
+      <c r="U4" s="148" t="s">
+        <v>189</v>
+      </c>
+      <c r="V4" s="143" t="s">
+        <v>184</v>
+      </c>
+      <c r="W4" s="138" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="133" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y4" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z4" s="123" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA4" s="118" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB4" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC4" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD4" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE4" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF4" s="93" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG4" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH4" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI4" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ4" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK4" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL4" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM4" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN4" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO4" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP4" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ4" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR4" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS4" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="AT4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="AU4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="AV4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="AW4" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="AX4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="AY4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="AZ4" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="BA4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="BB4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="BC4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="BD4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="BE4" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="BF4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="BG4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="BH4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="BI4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="BJ4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -928,58 +2585,187 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5" s="0" t="s">
+      <c r="B5" s="244" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="239" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="234" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="229" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="224" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="219" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="214" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="209" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="204" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="199" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="194" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="189" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="184" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="179" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="174" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="169" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="159" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="154" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="149" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="144" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="X5" s="134" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="124" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="114" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="99" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF5" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG5" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH5" s="84" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" s="79" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ5" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK5" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL5" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM5" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN5" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO5" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP5" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ5" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR5" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="BI5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="BJ5" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -987,58 +2773,187 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="245" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" s="240" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="235" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="230" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="225" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="220" t="s">
+        <v>256</v>
+      </c>
+      <c r="H6" s="215" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" s="210" t="s">
+        <v>246</v>
+      </c>
+      <c r="J6" s="205" t="s">
+        <v>241</v>
+      </c>
+      <c r="K6" s="200" t="s">
+        <v>236</v>
+      </c>
+      <c r="L6" s="195" t="s">
+        <v>233</v>
+      </c>
+      <c r="M6" s="190" t="s">
+        <v>228</v>
+      </c>
+      <c r="N6" s="185" t="s">
+        <v>223</v>
+      </c>
+      <c r="O6" s="180" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" s="175" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q6" s="170" t="s">
+        <v>209</v>
+      </c>
+      <c r="R6" s="165" t="s">
+        <v>204</v>
+      </c>
+      <c r="S6" s="160" t="s">
+        <v>200</v>
+      </c>
+      <c r="T6" s="155" t="s">
+        <v>195</v>
+      </c>
+      <c r="U6" s="150" t="s">
+        <v>190</v>
+      </c>
+      <c r="V6" s="145" t="s">
+        <v>185</v>
+      </c>
+      <c r="W6" s="140" t="s">
+        <v>181</v>
+      </c>
+      <c r="X6" s="135" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y6" s="130" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z6" s="125" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA6" s="120" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB6" s="115" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC6" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD6" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE6" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF6" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG6" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH6" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI6" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ6" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK6" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL6" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM6" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN6" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO6" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP6" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ6" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR6" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS6" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="AT6" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="AU6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="AV6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="AW6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="AX6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="AY6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="AZ6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="BA6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="BB6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="BC6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="BD6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="BE6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="BF6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="BG6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="BH6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="BI6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="BJ6" s="0" t="s">
         <v>8</v>
       </c>
     </row>
